--- a/1.基本設計書/3.画面レイアウト/1-3-6_レイアウト_顧客情報一覧・表示画面.xlsx
+++ b/1.基本設計書/3.画面レイアウト/1-3-6_レイアウト_顧客情報一覧・表示画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\3.画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AE123D-8AA3-4D28-9E1A-52DB6FD68A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25302739-7C0F-4BF8-BD5A-96B41ABA5B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="30" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11430" yWindow="90" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -439,6 +439,21 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,21 +546,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -635,15 +635,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>61434</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>49979</xdr:rowOff>
+      <xdr:colOff>80484</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>59504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -658,10 +658,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2052159" y="2355029"/>
-          <a:ext cx="5177316" cy="2331271"/>
+          <a:off x="2071209" y="1526354"/>
+          <a:ext cx="5177316" cy="2369371"/>
           <a:chOff x="2090259" y="1240604"/>
-          <a:chExt cx="5177316" cy="2331271"/>
+          <a:chExt cx="5177316" cy="2369371"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -2106,7 +2106,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5610226" y="3143249"/>
+            <a:off x="5581651" y="3181349"/>
             <a:ext cx="828674" cy="428625"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2168,7 +2168,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6438900" y="3143250"/>
+            <a:off x="6438900" y="3181350"/>
             <a:ext cx="828674" cy="428625"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2222,23 +2222,176 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A96A4E7-515B-49FF-98B7-64FFB50546DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="1228725"/>
+          <a:ext cx="1104900" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>メインメニュー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>122627</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>87595</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10EAC6F2-7352-4416-BAA0-F8A6F438FFC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3228975" y="1504950"/>
+          <a:ext cx="1551377" cy="259045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>エラーメッセージを表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="67" name="グループ化 66">
+        <xdr:cNvPr id="5" name="グループ化 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83EAFDF9-A2F3-42C5-9DB7-BB73B300001B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1937025F-9D7F-405B-A68B-0F5D34E37437}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2246,10 +2399,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2133599" y="4924425"/>
-          <a:ext cx="5095876" cy="2095500"/>
-          <a:chOff x="2152649" y="4105275"/>
-          <a:chExt cx="5095876" cy="2095500"/>
+          <a:off x="2152649" y="4076701"/>
+          <a:ext cx="5572126" cy="2619374"/>
+          <a:chOff x="2133599" y="4400551"/>
+          <a:chExt cx="5572126" cy="2619374"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -2265,7 +2418,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2152649" y="4105275"/>
+            <a:off x="2133599" y="4924425"/>
             <a:ext cx="5095875" cy="2095500"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2318,8 +2471,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2152649" y="4105276"/>
-            <a:ext cx="1333501" cy="419100"/>
+            <a:off x="2600325" y="4924426"/>
+            <a:ext cx="1257300" cy="419100"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2387,7 +2540,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3486150" y="4105275"/>
+            <a:off x="3857625" y="4924425"/>
             <a:ext cx="1714500" cy="419100"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2449,8 +2602,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5200650" y="4105275"/>
-            <a:ext cx="571500" cy="419100"/>
+            <a:off x="5572124" y="4924425"/>
+            <a:ext cx="466725" cy="419100"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2511,8 +2664,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5772150" y="4105275"/>
-            <a:ext cx="1476375" cy="419100"/>
+            <a:off x="6029325" y="4924425"/>
+            <a:ext cx="1200150" cy="419100"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2560,344 +2713,12 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="72" name="グループ化 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C705EC3D-42FF-42FC-A91C-E063FD45FDF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2047875" y="1295400"/>
-          <a:ext cx="4067176" cy="962025"/>
-          <a:chOff x="2047875" y="1295400"/>
-          <a:chExt cx="4067176" cy="962025"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="70" name="グループ化 69">
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="正方形/長方形 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91F5E33B-9D14-4CF2-AF02-F2E31847B1DF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="2047875" y="1295400"/>
-            <a:ext cx="4067176" cy="962025"/>
-            <a:chOff x="2047875" y="1295400"/>
-            <a:chExt cx="4067176" cy="962025"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="34" name="正方形/長方形 33">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7964289C-6C87-4E09-9D71-7A565EF9DA13}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3571875" y="1628775"/>
-              <a:ext cx="1104900" cy="457200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>顧客情報</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>編集画面</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="35" name="正方形/長方形 34">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CBB4F30-5CA4-48A0-8AA4-1C2606365997}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4810125" y="1628775"/>
-              <a:ext cx="1104900" cy="457200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>顧客情報</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>消去画面</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="68" name="正方形/長方形 67">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27C63BE4-7242-4E7F-9869-727309C6F18C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2133601" y="1504951"/>
-              <a:ext cx="3981450" cy="752474"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="69" name="テキスト ボックス 68">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1285D6-9E5F-494B-BF14-B01B5481A72F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2047875" y="1295400"/>
-              <a:ext cx="1110141" cy="216721"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>画面移行ボタン</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="71" name="正方形/長方形 70">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F4754B6-4ECD-4664-A4DB-9B933BEB8FA4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FFC8DF6-B0F2-4288-97E2-4F40D6060841}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2905,8 +2726,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2333625" y="1628775"/>
-            <a:ext cx="1104900" cy="457200"/>
+            <a:off x="2133599" y="4924425"/>
+            <a:ext cx="466725" cy="419100"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2949,8 +2770,251 @@
                 <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>メインメニュー</a:t>
+              <a:t>選択</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="正方形/長方形 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{108D08E0-972A-4563-964B-F85B662C6F4E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2133600" y="4400551"/>
+            <a:ext cx="1000125" cy="466724"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>会員情報</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>編集画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="正方形/長方形 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C05A40-65E3-4174-A98E-7BA82AEE9459}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3171825" y="4400552"/>
+            <a:ext cx="1009650" cy="466724"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>会員情報</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>消去画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="テキスト ボックス 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E2F0CFC-7BBB-4D18-A957-2131757CA04A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4200525" y="4648200"/>
+            <a:ext cx="3505200" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>※</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>選択にチェックした後、表示画面ボタンを押してください。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -3260,7 +3324,7 @@
   <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3570,28 +3634,28 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="22"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="27"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -3605,26 +3669,26 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="25"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="30"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
@@ -3638,26 +3702,26 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="25"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="30"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
@@ -3671,28 +3735,28 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="25"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="30"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
@@ -3706,26 +3770,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="25"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="30"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
@@ -3739,26 +3803,26 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="28"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="33"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
@@ -4004,28 +4068,28 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="29" t="s">
+      <c r="I23" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="29" t="s">
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="31"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="36"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
@@ -4041,24 +4105,24 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="34"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="39"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
@@ -4074,28 +4138,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="29" t="s">
+      <c r="I25" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="29" t="s">
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="31"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="36"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
@@ -4111,24 +4175,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="34"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="39"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
@@ -4144,28 +4208,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="29" t="s">
+      <c r="I27" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="29" t="s">
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="31"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="36"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
@@ -4181,24 +4245,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="34"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="39"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
@@ -4214,28 +4278,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="29" t="s">
+      <c r="I29" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="35">
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="40">
         <v>44526</v>
       </c>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="37"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="42"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
@@ -4251,24 +4315,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="40"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="45"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
@@ -4284,28 +4348,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="29" t="s">
+      <c r="I31" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="29" t="s">
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="31"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="36"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
@@ -4321,24 +4385,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="34"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="39"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
@@ -4354,28 +4418,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="29" t="s">
+      <c r="I33" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="35">
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="40">
         <v>44505</v>
       </c>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="37"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="42"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
@@ -4391,24 +4455,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="40"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="44"/>
+      <c r="Z34" s="45"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
@@ -4446,7 +4510,7 @@
   <dimension ref="A1:AX35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AO10" sqref="AO10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4462,133 +4526,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="44" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="45" t="str">
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="50" t="str">
         <f>表紙!O25</f>
         <v>顧客情報一覧・表示画面</v>
       </c>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="46" t="s">
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="41" t="s">
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="49" t="s">
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="41" t="s">
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="42"/>
-      <c r="AX1" s="43"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="48"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="44" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="46" t="s">
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="48">
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="53">
         <v>44505</v>
       </c>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="49" t="s">
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="48">
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="53">
         <v>44526</v>
       </c>
-      <c r="AT2" s="42"/>
-      <c r="AU2" s="42"/>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="43"/>
+      <c r="AT2" s="47"/>
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="48"/>
     </row>
     <row r="4" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3"/>
@@ -4864,15 +4928,15 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
@@ -4910,15 +4974,15 @@
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
       <c r="U11" s="14"/>
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
@@ -4956,15 +5020,15 @@
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
       <c r="U12" s="14"/>
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
@@ -5002,26 +5066,26 @@
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="56"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
       <c r="AF13" s="14"/>
       <c r="AG13" s="13"/>
       <c r="AH13" s="13"/>
@@ -5153,14 +5217,14 @@
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
-      <c r="AH16" s="57"/>
-      <c r="AI16" s="57"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
       <c r="AJ16" s="11"/>
       <c r="AK16" s="11"/>
       <c r="AL16" s="11"/>
@@ -5196,14 +5260,14 @@
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
       <c r="AA17" s="11"/>
-      <c r="AB17" s="57"/>
-      <c r="AC17" s="57"/>
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="57"/>
-      <c r="AG17" s="57"/>
-      <c r="AH17" s="57"/>
-      <c r="AI17" s="57"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
       <c r="AJ17" s="8"/>
       <c r="AK17" s="8"/>
       <c r="AL17" s="8"/>
@@ -5224,16 +5288,16 @@
       <c r="C18" s="4"/>
       <c r="D18" s="8"/>
       <c r="K18" s="14"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
       <c r="V18" s="16"/>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
@@ -5268,16 +5332,16 @@
       <c r="C19" s="4"/>
       <c r="D19" s="8"/>
       <c r="K19" s="14"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
       <c r="V19" s="16"/>
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
@@ -5354,32 +5418,32 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="8"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="59"/>
-      <c r="AJ21" s="59"/>
-      <c r="AK21" s="59"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="23"/>
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="23"/>
       <c r="AL21" s="8"/>
       <c r="AM21" s="8"/>
       <c r="AN21" s="8"/>
@@ -5397,32 +5461,32 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="8"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="59"/>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="59"/>
-      <c r="AJ22" s="59"/>
-      <c r="AK22" s="59"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="23"/>
       <c r="AL22" s="8"/>
       <c r="AM22" s="8"/>
       <c r="AN22" s="8"/>
@@ -5440,32 +5504,32 @@
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="8"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="59"/>
-      <c r="AG23" s="59"/>
-      <c r="AH23" s="59"/>
-      <c r="AI23" s="59"/>
-      <c r="AJ23" s="59"/>
-      <c r="AK23" s="59"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="23"/>
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="23"/>
       <c r="AL23" s="8"/>
       <c r="AM23" s="8"/>
       <c r="AN23" s="8"/>
@@ -5483,32 +5547,32 @@
       <c r="B24" s="6"/>
       <c r="C24" s="4"/>
       <c r="D24" s="8"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="59"/>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="59"/>
-      <c r="AJ24" s="59"/>
-      <c r="AK24" s="59"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="23"/>
+      <c r="AI24" s="23"/>
+      <c r="AJ24" s="23"/>
+      <c r="AK24" s="23"/>
       <c r="AL24" s="8"/>
       <c r="AM24" s="8"/>
       <c r="AN24" s="8"/>
@@ -5526,32 +5590,32 @@
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="8"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="59"/>
-      <c r="AG25" s="59"/>
-      <c r="AH25" s="59"/>
-      <c r="AI25" s="59"/>
-      <c r="AJ25" s="59"/>
-      <c r="AK25" s="59"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="23"/>
+      <c r="AI25" s="23"/>
+      <c r="AJ25" s="23"/>
+      <c r="AK25" s="23"/>
       <c r="AL25" s="8"/>
       <c r="AM25" s="8"/>
       <c r="AN25" s="8"/>
@@ -5569,32 +5633,32 @@
       <c r="B26" s="18"/>
       <c r="C26" s="11"/>
       <c r="D26" s="8"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="59"/>
-      <c r="AJ26" s="59"/>
-      <c r="AK26" s="59"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="23"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="23"/>
       <c r="AL26" s="8"/>
       <c r="AM26" s="8"/>
       <c r="AN26" s="8"/>
@@ -5612,32 +5676,32 @@
       <c r="B27" s="18"/>
       <c r="C27" s="11"/>
       <c r="D27" s="8"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="59"/>
-      <c r="AG27" s="59"/>
-      <c r="AH27" s="59"/>
-      <c r="AI27" s="59"/>
-      <c r="AJ27" s="59"/>
-      <c r="AK27" s="59"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="23"/>
+      <c r="AH27" s="23"/>
+      <c r="AI27" s="23"/>
+      <c r="AJ27" s="23"/>
+      <c r="AK27" s="23"/>
       <c r="AL27" s="8"/>
       <c r="AM27" s="8"/>
       <c r="AN27" s="8"/>
@@ -5655,32 +5719,32 @@
       <c r="B28" s="18"/>
       <c r="C28" s="11"/>
       <c r="D28" s="8"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="59"/>
-      <c r="AF28" s="59"/>
-      <c r="AG28" s="59"/>
-      <c r="AH28" s="59"/>
-      <c r="AI28" s="59"/>
-      <c r="AJ28" s="59"/>
-      <c r="AK28" s="59"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="23"/>
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="23"/>
       <c r="AL28" s="8"/>
       <c r="AM28" s="8"/>
       <c r="AN28" s="8"/>
@@ -5698,32 +5762,32 @@
       <c r="B29" s="18"/>
       <c r="C29" s="11"/>
       <c r="D29" s="8"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="59"/>
-      <c r="AC29" s="59"/>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="59"/>
-      <c r="AF29" s="59"/>
-      <c r="AG29" s="59"/>
-      <c r="AH29" s="59"/>
-      <c r="AI29" s="59"/>
-      <c r="AJ29" s="59"/>
-      <c r="AK29" s="59"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="23"/>
+      <c r="AG29" s="23"/>
+      <c r="AH29" s="23"/>
+      <c r="AI29" s="23"/>
+      <c r="AJ29" s="23"/>
+      <c r="AK29" s="23"/>
       <c r="AL29" s="8"/>
       <c r="AM29" s="8"/>
       <c r="AN29" s="8"/>
@@ -5741,32 +5805,32 @@
       <c r="B30" s="18"/>
       <c r="C30" s="11"/>
       <c r="D30" s="8"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="59"/>
-      <c r="AB30" s="59"/>
-      <c r="AC30" s="59"/>
-      <c r="AD30" s="59"/>
-      <c r="AE30" s="59"/>
-      <c r="AF30" s="59"/>
-      <c r="AG30" s="59"/>
-      <c r="AH30" s="59"/>
-      <c r="AI30" s="59"/>
-      <c r="AJ30" s="59"/>
-      <c r="AK30" s="59"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="23"/>
+      <c r="AF30" s="23"/>
+      <c r="AG30" s="23"/>
+      <c r="AH30" s="23"/>
+      <c r="AI30" s="23"/>
+      <c r="AJ30" s="23"/>
+      <c r="AK30" s="23"/>
       <c r="AL30" s="8"/>
       <c r="AM30" s="8"/>
       <c r="AN30" s="8"/>
@@ -5784,32 +5848,32 @@
       <c r="B31" s="18"/>
       <c r="C31" s="11"/>
       <c r="D31" s="8"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="60"/>
-      <c r="U31" s="60"/>
-      <c r="V31" s="60"/>
-      <c r="W31" s="60"/>
-      <c r="X31" s="60"/>
-      <c r="Y31" s="60"/>
-      <c r="Z31" s="60"/>
-      <c r="AA31" s="60"/>
-      <c r="AB31" s="60"/>
-      <c r="AC31" s="60"/>
-      <c r="AD31" s="60"/>
-      <c r="AE31" s="60"/>
-      <c r="AF31" s="60"/>
-      <c r="AG31" s="60"/>
-      <c r="AH31" s="60"/>
-      <c r="AI31" s="60"/>
-      <c r="AJ31" s="60"/>
-      <c r="AK31" s="60"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
+      <c r="AD31" s="24"/>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="24"/>
+      <c r="AH31" s="24"/>
+      <c r="AI31" s="24"/>
+      <c r="AJ31" s="24"/>
+      <c r="AK31" s="24"/>
       <c r="AL31" s="8"/>
       <c r="AM31" s="8"/>
       <c r="AN31" s="8"/>

--- a/1.基本設計書/3.画面レイアウト/1-3-6_レイアウト_顧客情報一覧・表示画面.xlsx
+++ b/1.基本設計書/3.画面レイアウト/1-3-6_レイアウト_顧客情報一覧・表示画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\3.画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25302739-7C0F-4BF8-BD5A-96B41ABA5B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24232FC2-535D-40B0-A2C5-17FCBBE05048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="90" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10080" yWindow="30" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -454,33 +454,6 @@
     <xf numFmtId="176" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,6 +490,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,10 +534,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="56" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,10 +546,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -635,9 +635,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>80484</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>59504</xdr:rowOff>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
@@ -647,10 +647,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="36" name="グループ化 35">
+        <xdr:cNvPr id="14" name="グループ化 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A982288-60C7-435F-A6FA-594337DAFFB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60295796-6BC0-4C56-8AE5-C50F3475F764}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -658,10 +658,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2071209" y="1526354"/>
-          <a:ext cx="5177316" cy="2369371"/>
-          <a:chOff x="2090259" y="1240604"/>
-          <a:chExt cx="5177316" cy="2369371"/>
+          <a:off x="2152651" y="1752601"/>
+          <a:ext cx="5095874" cy="2143124"/>
+          <a:chOff x="2152651" y="1752601"/>
+          <a:chExt cx="5095874" cy="2143124"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -677,7 +677,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2171701" y="1466851"/>
+            <a:off x="2152651" y="1752601"/>
             <a:ext cx="5095874" cy="1676400"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -728,7 +728,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2372368" y="1628776"/>
+            <a:off x="2353318" y="1914526"/>
             <a:ext cx="851115" cy="275717"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -779,68 +779,6 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="テキスト ボックス 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B764C7EF-BE9A-41FD-8D16-ACFBE6752BA6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2090259" y="1240604"/>
-            <a:ext cx="1110141" cy="216721"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>検索情報の記述</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -852,7 +790,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3124200" y="1676399"/>
+            <a:off x="3105150" y="1962149"/>
             <a:ext cx="962025" cy="209551"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -905,7 +843,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2219326" y="1847850"/>
+            <a:off x="2200276" y="2133600"/>
             <a:ext cx="1000946" cy="275717"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -997,7 +935,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2200275" y="2280969"/>
+            <a:off x="2181225" y="2566719"/>
             <a:ext cx="1000946" cy="275717"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1089,7 +1027,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3119491" y="1888304"/>
+            <a:off x="3100441" y="2174054"/>
             <a:ext cx="856179" cy="214045"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1142,7 +1080,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2205307" y="2059752"/>
+            <a:off x="2186257" y="2345502"/>
             <a:ext cx="1000946" cy="275717"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1234,7 +1172,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2195781" y="2502396"/>
+            <a:off x="2176731" y="2788146"/>
             <a:ext cx="1000946" cy="275717"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1326,7 +1264,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3124522" y="2109731"/>
+            <a:off x="3105472" y="2395481"/>
             <a:ext cx="847403" cy="223894"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1379,7 +1317,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3124200" y="2333625"/>
+            <a:off x="3105150" y="2619375"/>
             <a:ext cx="847403" cy="223894"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1432,7 +1370,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3124200" y="2562225"/>
+            <a:off x="3105150" y="2847975"/>
             <a:ext cx="847403" cy="223894"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1485,7 +1423,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5537666" y="1679933"/>
+            <a:off x="5518616" y="1965683"/>
             <a:ext cx="513708" cy="214045"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1538,7 +1476,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5532205" y="2432407"/>
+            <a:off x="5513155" y="2718157"/>
             <a:ext cx="684943" cy="256853"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1598,7 +1536,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4638675" y="1647825"/>
+            <a:off x="4619625" y="1933575"/>
             <a:ext cx="1000946" cy="275717"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1670,7 +1608,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5976455" y="1651357"/>
+            <a:off x="5957405" y="1937107"/>
             <a:ext cx="348109" cy="275717"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1732,7 +1670,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5772471" y="1899006"/>
+            <a:off x="5753421" y="2184756"/>
             <a:ext cx="278258" cy="224748"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1785,7 +1723,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5976991" y="1888304"/>
+            <a:off x="5957941" y="2174054"/>
             <a:ext cx="348109" cy="275717"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1847,7 +1785,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5988229" y="2107380"/>
+            <a:off x="5969179" y="2393130"/>
             <a:ext cx="348109" cy="275717"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1909,7 +1847,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5050604" y="2421704"/>
+            <a:off x="5031554" y="2707454"/>
             <a:ext cx="572856" cy="275717"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1981,7 +1919,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5772150" y="2124075"/>
+            <a:off x="5753100" y="2409825"/>
             <a:ext cx="278258" cy="224748"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2034,7 +1972,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2809875" y="2895600"/>
+            <a:off x="2790825" y="3181350"/>
             <a:ext cx="3505200" cy="200025"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2106,7 +2044,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5581651" y="3181349"/>
+            <a:off x="5562601" y="3467099"/>
             <a:ext cx="828674" cy="428625"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2168,7 +2106,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6438900" y="3181350"/>
+            <a:off x="6419850" y="3467100"/>
             <a:ext cx="828674" cy="428625"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2299,16 +2237,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>122627</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>87595</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144745</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2323,7 +2261,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3228975" y="1504950"/>
+          <a:off x="2085975" y="3448050"/>
           <a:ext cx="1551377" cy="259045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2376,22 +2314,380 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{108D08E0-972A-4563-964B-F85B662C6F4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="4267201"/>
+          <a:ext cx="1000125" cy="466724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>会員情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>編集画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C05A40-65E3-4174-A98E-7BA82AEE9459}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="4267202"/>
+          <a:ext cx="1009650" cy="466724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>会員情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>消去画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E2F0CFC-7BBB-4D18-A957-2131757CA04A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057399" y="4791075"/>
+          <a:ext cx="4600575" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>一覧表示の選択に一つだけチェックした後、表示画面ボタンを押してください。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2814F49B-F452-4DAE-9B3E-CE2B7B9F8B20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2066925" y="5162550"/>
+          <a:ext cx="3505200" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>会員情報一覧表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="グループ化 4">
+        <xdr:cNvPr id="10" name="グループ化 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1937025F-9D7F-405B-A68B-0F5D34E37437}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DBD2108-091C-42DF-A3A2-9D676BD1DE08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2399,10 +2695,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2152649" y="4076701"/>
-          <a:ext cx="5572126" cy="2619374"/>
-          <a:chOff x="2133599" y="4400551"/>
-          <a:chExt cx="5572126" cy="2619374"/>
+          <a:off x="2133599" y="5448300"/>
+          <a:ext cx="6410327" cy="2095500"/>
+          <a:chOff x="2152649" y="5038725"/>
+          <a:chExt cx="6410327" cy="2095500"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -2418,8 +2714,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2133599" y="4924425"/>
-            <a:ext cx="5095875" cy="2095500"/>
+            <a:off x="2152650" y="5038725"/>
+            <a:ext cx="6410326" cy="2095500"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2458,567 +2754,1393 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="63" name="正方形/長方形 62">
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="8" name="グループ化 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C9B2A63-D71F-4F1B-A1CB-0E9D219FFBF6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA834883-D793-41E8-9D2D-201B78FD1573}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="2600325" y="4924426"/>
-            <a:ext cx="1257300" cy="419100"/>
+            <a:off x="2152649" y="5038725"/>
+            <a:ext cx="6410325" cy="419101"/>
+            <a:chOff x="2152649" y="5038725"/>
+            <a:chExt cx="6410325" cy="419101"/>
           </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="63" name="正方形/長方形 62">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C9B2A63-D71F-4F1B-A1CB-0E9D219FFBF6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2619375" y="5038726"/>
+              <a:ext cx="971550" cy="419100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>ID</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ID</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="64" name="正方形/長方形 63">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A20581-5CE9-4E3C-AEB1-F8F6B30F4564}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3590925" y="5038725"/>
+              <a:ext cx="1714500" cy="419100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>氏名</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="65" name="正方形/長方形 64">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C434BEE3-371E-4A52-924B-EC41B7350A9D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5305424" y="5038725"/>
+              <a:ext cx="600076" cy="419100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>性別</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="66" name="正方形/長方形 65">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FF01BDB-7CF6-4376-8C1A-0700558FE203}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5905500" y="5038725"/>
+              <a:ext cx="942975" cy="419100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>生年月日</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="41" name="正方形/長方形 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FFC8DF6-B0F2-4288-97E2-4F40D6060841}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2152649" y="5038725"/>
+              <a:ext cx="466725" cy="419100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>選択</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="47" name="正方形/長方形 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D28DEB4B-2A4F-446C-8DDA-FA8C300041C6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6848474" y="5038725"/>
+              <a:ext cx="1714500" cy="419100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>登録者</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="7" name="グループ化 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D173C4-CF54-4E68-9827-D6FAAF279641}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2152649" y="5457825"/>
+            <a:ext cx="6410326" cy="266700"/>
+            <a:chOff x="2152649" y="5457825"/>
+            <a:chExt cx="6410326" cy="266700"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="正方形/長方形 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{329B1643-8B49-4F0B-A448-EBCD0515F73B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2152649" y="5457825"/>
+              <a:ext cx="466725" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>□</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="49" name="正方形/長方形 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41C50B7-CD03-42EC-9A52-14372241EC17}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2619374" y="5457825"/>
+              <a:ext cx="971551" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>system</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="50" name="正方形/長方形 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{170B979D-C149-4FF4-AC58-B8D9DA7B8FF1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3590924" y="5457825"/>
+              <a:ext cx="1714501" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>会員情報 システム太郎</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="51" name="正方形/長方形 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E95C95-ABFA-49A8-AD8D-5A363E2B0022}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5305424" y="5457825"/>
+              <a:ext cx="600075" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>その他</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="52" name="正方形/長方形 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D7364B1-C226-4E40-BE69-C61DC7E4B402}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5905499" y="5457825"/>
+              <a:ext cx="942976" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>2021/11/29</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="53" name="正方形/長方形 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08E60C6-5A67-4ACA-9469-3A4FD6F58C2F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6848474" y="5457825"/>
+              <a:ext cx="1714501" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>会員情報 システム太郎</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="54" name="グループ化 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB468BE2-5EDF-4ECB-9889-0BDC58C9924D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2152650" y="5724525"/>
+            <a:ext cx="6410326" cy="266700"/>
+            <a:chOff x="2152649" y="5457825"/>
+            <a:chExt cx="6410326" cy="266700"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="55" name="正方形/長方形 54">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160DE2D3-AB15-4C41-90EE-941C56762599}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2152649" y="5457825"/>
+              <a:ext cx="466725" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>□</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="56" name="正方形/長方形 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1AD6481-D5BA-4791-B4DB-F098DECE648D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2619374" y="5457825"/>
+              <a:ext cx="971551" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>man</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="57" name="正方形/長方形 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AACC985-3710-40FE-BDA8-C6209E662D46}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3590924" y="5457825"/>
+              <a:ext cx="1714501" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>システム 男太郎</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="58" name="正方形/長方形 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB340FE-358A-47C5-8265-E92FAAA58E1E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5305424" y="5457825"/>
+              <a:ext cx="600075" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>男</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="59" name="正方形/長方形 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D25CC8E-8FE7-49C0-A397-34DFC4C298BE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5905499" y="5457825"/>
+              <a:ext cx="942976" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>2021/04/01</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60" name="正方形/長方形 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{517666DD-C775-43C6-ACFB-750F15D80007}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6848474" y="5457825"/>
+              <a:ext cx="1714501" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>会員情報 システム太郎</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="テキスト ボックス 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE698F9-34C0-4A42-B7BA-1F366E36006B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="4010025"/>
+          <a:ext cx="3505200" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="64" name="正方形/長方形 63">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A20581-5CE9-4E3C-AEB1-F8F6B30F4564}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3857625" y="4924425"/>
-            <a:ext cx="1714500" cy="419100"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
+            </a:rPr>
+            <a:t>編集画面ボタン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>氏名</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="65" name="正方形/長方形 64">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C434BEE3-371E-4A52-924B-EC41B7350A9D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5572124" y="4924425"/>
-            <a:ext cx="466725" cy="419100"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>性別</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="66" name="正方形/長方形 65">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FF01BDB-7CF6-4376-8C1A-0700558FE203}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6029325" y="4924425"/>
-            <a:ext cx="1200150" cy="419100"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>生年月日</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="正方形/長方形 40">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FFC8DF6-B0F2-4288-97E2-4F40D6060841}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2133599" y="4924425"/>
-            <a:ext cx="466725" cy="419100"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>選択</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="テキスト ボックス 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A83900CD-3B07-49AE-A9DC-5B664371EB21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="1495425"/>
+          <a:ext cx="1590675" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="44" name="正方形/長方形 43">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{108D08E0-972A-4563-964B-F85B662C6F4E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2133600" y="4400551"/>
-            <a:ext cx="1000125" cy="466724"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
+            </a:rPr>
+            <a:t>検索情報の記述</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>会員情報</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>編集画面</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="正方形/長方形 44">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C05A40-65E3-4174-A98E-7BA82AEE9459}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3171825" y="4400552"/>
-            <a:ext cx="1009650" cy="466724"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>会員情報</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>消去画面</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="テキスト ボックス 45">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E2F0CFC-7BBB-4D18-A957-2131757CA04A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4200525" y="4648200"/>
-            <a:ext cx="3505200" cy="200025"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>※</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>選択にチェックした後、表示画面ボタンを押してください。</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3324,7 +4446,7 @@
   <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3634,28 +4756,28 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="27"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="39"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -3669,26 +4791,26 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="30"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="42"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
@@ -3702,26 +4824,26 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="30"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="42"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
@@ -3735,28 +4857,28 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="30"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="42"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
@@ -3770,26 +4892,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="30"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="42"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
@@ -3803,26 +4925,26 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="33"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="45"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
@@ -4068,28 +5190,28 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="34" t="s">
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="36"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="27"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
@@ -4105,24 +5227,24 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="39"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="30"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
@@ -4138,28 +5260,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="34" t="s">
+      <c r="I25" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="34" t="s">
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="36"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="27"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
@@ -4175,24 +5297,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="39"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="30"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
@@ -4208,28 +5330,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="34" t="s">
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="36"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="27"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
@@ -4245,24 +5367,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="39"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="30"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
@@ -4278,28 +5400,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="34" t="s">
+      <c r="I29" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="40">
-        <v>44526</v>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="31">
+        <v>44529</v>
       </c>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="42"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="33"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
@@ -4315,24 +5437,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="44"/>
-      <c r="Z30" s="45"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="36"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
@@ -4348,28 +5470,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="34" t="s">
+      <c r="I31" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="34" t="s">
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="36"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="27"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
@@ -4385,24 +5507,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="39"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="30"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
@@ -4418,28 +5540,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="34" t="s">
+      <c r="I33" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="40">
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="31">
         <v>44505</v>
       </c>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="42"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="33"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
@@ -4455,24 +5577,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="44"/>
-      <c r="V34" s="44"/>
-      <c r="W34" s="44"/>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="44"/>
-      <c r="Z34" s="45"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="36"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
@@ -4481,6 +5603,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H10:AA12"/>
+    <mergeCell ref="H13:AA15"/>
+    <mergeCell ref="I23:N24"/>
+    <mergeCell ref="O23:Z24"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
     <mergeCell ref="I27:N28"/>
@@ -4489,12 +5617,6 @@
     <mergeCell ref="O29:Z30"/>
     <mergeCell ref="I31:N32"/>
     <mergeCell ref="O31:Z32"/>
-    <mergeCell ref="H10:AA12"/>
-    <mergeCell ref="H13:AA15"/>
-    <mergeCell ref="I23:N24"/>
-    <mergeCell ref="O23:Z24"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4510,7 +5632,7 @@
   <dimension ref="A1:AX35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4526,133 +5648,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="49" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="50" t="str">
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="51" t="str">
         <f>表紙!O25</f>
         <v>顧客情報一覧・表示画面</v>
       </c>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="51" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="46" t="s">
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="54" t="s">
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="46" t="s">
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="48"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="56"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="49" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="51" t="s">
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="53">
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="57">
         <v>44505</v>
       </c>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="54" t="s">
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="55"/>
-      <c r="AQ2" s="55"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="53">
-        <v>44526</v>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="57">
+        <v>44529</v>
       </c>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="48"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="56"/>
     </row>
     <row r="4" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3"/>
@@ -6086,11 +7208,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="AS1:AX1"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="S2:AD2"/>
@@ -6099,6 +7216,11 @@
     <mergeCell ref="AO2:AR2"/>
     <mergeCell ref="AS2:AX2"/>
     <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.基本設計書/3.画面レイアウト/1-3-6_レイアウト_顧客情報一覧・表示画面.xlsx
+++ b/1.基本設計書/3.画面レイアウト/1-3-6_レイアウト_顧客情報一覧・表示画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\3.画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24232FC2-535D-40B0-A2C5-17FCBBE05048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B344FFA2-949A-411B-85A9-3A5CCADB3BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="30" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="0" windowWidth="19530" windowHeight="15420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -454,6 +454,33 @@
     <xf numFmtId="176" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -490,41 +517,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,6 +526,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="56" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -546,6 +542,10 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2401,7 +2401,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>編集画面</a:t>
+            <a:t>更新画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4445,8 +4445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019A13F1-7088-4DDC-B626-5F11C1BD6288}">
   <dimension ref="A1:AE34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4756,28 +4756,28 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="39"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="27"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -4791,26 +4791,26 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="42"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="30"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
@@ -4824,26 +4824,26 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="42"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="30"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
@@ -4857,28 +4857,28 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="42"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="30"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
@@ -4892,26 +4892,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="42"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="30"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
@@ -4925,26 +4925,26 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="45"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="33"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
@@ -5190,28 +5190,28 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="25" t="s">
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="27"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="36"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
@@ -5227,24 +5227,24 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="30"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="39"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
@@ -5260,28 +5260,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="25" t="s">
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="27"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="36"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
@@ -5297,24 +5297,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="30"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="39"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
@@ -5330,28 +5330,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="25" t="s">
+      <c r="I27" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="25" t="s">
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="27"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="36"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
@@ -5367,24 +5367,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="30"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="39"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
@@ -5400,28 +5400,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="25" t="s">
+      <c r="I29" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="31">
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="40">
         <v>44529</v>
       </c>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="33"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="42"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
@@ -5437,24 +5437,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="36"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="45"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
@@ -5470,28 +5470,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="25" t="s">
+      <c r="I31" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="25" t="s">
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="26"/>
-      <c r="Z31" s="27"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="36"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
@@ -5507,24 +5507,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="30"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="39"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
@@ -5540,28 +5540,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="25" t="s">
+      <c r="I33" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="31">
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="40">
         <v>44505</v>
       </c>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="33"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="42"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
@@ -5577,24 +5577,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="36"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="44"/>
+      <c r="Z34" s="45"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
@@ -5603,12 +5603,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H10:AA12"/>
-    <mergeCell ref="H13:AA15"/>
-    <mergeCell ref="I23:N24"/>
-    <mergeCell ref="O23:Z24"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
     <mergeCell ref="I27:N28"/>
@@ -5617,6 +5611,12 @@
     <mergeCell ref="O29:Z30"/>
     <mergeCell ref="I31:N32"/>
     <mergeCell ref="O31:Z32"/>
+    <mergeCell ref="H10:AA12"/>
+    <mergeCell ref="H13:AA15"/>
+    <mergeCell ref="I23:N24"/>
+    <mergeCell ref="O23:Z24"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5631,8 +5631,8 @@
   </sheetPr>
   <dimension ref="A1:AX35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AZ18" sqref="AZ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5648,133 +5648,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="50" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="51" t="str">
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="50" t="str">
         <f>表紙!O25</f>
         <v>顧客情報一覧・表示画面</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="52" t="s">
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="54" t="s">
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="58" t="s">
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="54" t="s">
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="56"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="48"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="50" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="52" t="s">
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="57">
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="53">
         <v>44505</v>
       </c>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="58" t="s">
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="57">
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="53">
         <v>44529</v>
       </c>
-      <c r="AT2" s="55"/>
-      <c r="AU2" s="55"/>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="55"/>
-      <c r="AX2" s="56"/>
+      <c r="AT2" s="47"/>
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="48"/>
     </row>
     <row r="4" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3"/>
@@ -7208,6 +7208,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="AS1:AX1"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="S2:AD2"/>
@@ -7216,11 +7221,6 @@
     <mergeCell ref="AO2:AR2"/>
     <mergeCell ref="AS2:AX2"/>
     <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.基本設計書/3.画面レイアウト/1-3-6_レイアウト_顧客情報一覧・表示画面.xlsx
+++ b/1.基本設計書/3.画面レイアウト/1-3-6_レイアウト_顧客情報一覧・表示画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\3.画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B344FFA2-949A-411B-85A9-3A5CCADB3BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B59561-5C0D-4BB0-878D-400DE0027652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="0" windowWidth="19530" windowHeight="15420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="285" windowWidth="19530" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -454,33 +454,6 @@
     <xf numFmtId="176" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,6 +490,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,10 +534,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="56" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,10 +546,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4445,8 +4445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019A13F1-7088-4DDC-B626-5F11C1BD6288}">
   <dimension ref="A1:AE34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4756,28 +4756,28 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="27"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="39"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -4791,26 +4791,26 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="30"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="42"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
@@ -4824,26 +4824,26 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="30"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="42"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
@@ -4857,28 +4857,28 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="30"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="42"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
@@ -4892,26 +4892,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="30"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="42"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
@@ -4925,26 +4925,26 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="33"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="45"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
@@ -5190,28 +5190,28 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="34" t="s">
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="36"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="27"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
@@ -5227,24 +5227,24 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="39"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="30"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
@@ -5260,28 +5260,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="34" t="s">
+      <c r="I25" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="34" t="s">
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="36"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="27"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
@@ -5297,24 +5297,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="39"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="30"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
@@ -5330,28 +5330,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="34" t="s">
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="36"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="27"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
@@ -5367,24 +5367,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="39"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="30"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
@@ -5400,28 +5400,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="34" t="s">
+      <c r="I29" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="40">
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="31">
         <v>44529</v>
       </c>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="42"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="33"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
@@ -5437,24 +5437,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="44"/>
-      <c r="Z30" s="45"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="36"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
@@ -5470,28 +5470,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="34" t="s">
+      <c r="I31" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="34" t="s">
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="36"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="27"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
@@ -5507,24 +5507,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="39"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="30"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
@@ -5540,28 +5540,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="34" t="s">
+      <c r="I33" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="40">
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="31">
         <v>44505</v>
       </c>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="42"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="33"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
@@ -5577,24 +5577,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="44"/>
-      <c r="V34" s="44"/>
-      <c r="W34" s="44"/>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="44"/>
-      <c r="Z34" s="45"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="36"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
@@ -5603,6 +5603,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H10:AA12"/>
+    <mergeCell ref="H13:AA15"/>
+    <mergeCell ref="I23:N24"/>
+    <mergeCell ref="O23:Z24"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
     <mergeCell ref="I27:N28"/>
@@ -5611,12 +5617,6 @@
     <mergeCell ref="O29:Z30"/>
     <mergeCell ref="I31:N32"/>
     <mergeCell ref="O31:Z32"/>
-    <mergeCell ref="H10:AA12"/>
-    <mergeCell ref="H13:AA15"/>
-    <mergeCell ref="I23:N24"/>
-    <mergeCell ref="O23:Z24"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5631,7 +5631,7 @@
   </sheetPr>
   <dimension ref="A1:AX35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AZ18" sqref="AZ18"/>
     </sheetView>
   </sheetViews>
@@ -5648,133 +5648,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="49" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="50" t="str">
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="51" t="str">
         <f>表紙!O25</f>
         <v>顧客情報一覧・表示画面</v>
       </c>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="51" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="46" t="s">
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="54" t="s">
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="46" t="s">
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="48"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="56"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="49" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="51" t="s">
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="53">
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="57">
         <v>44505</v>
       </c>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="54" t="s">
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="55"/>
-      <c r="AQ2" s="55"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="53">
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="57">
         <v>44529</v>
       </c>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="48"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="56"/>
     </row>
     <row r="4" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3"/>
@@ -7208,11 +7208,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="AS1:AX1"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="S2:AD2"/>
@@ -7221,6 +7216,11 @@
     <mergeCell ref="AO2:AR2"/>
     <mergeCell ref="AS2:AX2"/>
     <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
